--- a/Assets/Vgame/Vdata/Excel/config.XLSX
+++ b/Assets/Vgame/Vdata/Excel/config.XLSX
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="22380" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="5380" yWindow="1520" windowWidth="22380" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>cat_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,26 @@
   </si>
   <si>
     <t>[1,10]</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1041,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1111,75 +1131,79 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="5">
-        <v>1</v>
+      <c r="A3" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.4</v>
+        <v>68</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.05</v>
+        <v>71</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.2</v>
+      </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.1</v>
+      <c r="H4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>53</v>
@@ -1193,29 +1217,29 @@
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H6" s="5">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I6" s="5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15">
@@ -1223,106 +1247,133 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="5">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="I7" s="5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
         <v>0.2</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="5">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H9" s="5">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I9" s="5">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="5">
-        <v>8000</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5">
         <v>0.1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15">
+      <c r="A11" s="5">
+        <v>8000</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
         <v>0.1</v>
       </c>
-      <c r="I10" s="5">
+      <c r="F11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="5">
         <v>0.4</v>
       </c>
     </row>

--- a/Assets/Vgame/Vdata/Excel/config.XLSX
+++ b/Assets/Vgame/Vdata/Excel/config.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="1520" windowWidth="22380" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="5380" yWindow="1520" windowWidth="22380" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="chat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>cat_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,26 @@
   </si>
   <si>
     <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -781,56 +801,59 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="15">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
+    <row r="3" spans="1:13" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="15">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -848,21 +871,21 @@
         <v>2</v>
       </c>
       <c r="K4" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="15">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -871,10 +894,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -889,18 +912,18 @@
         <v>50</v>
       </c>
       <c r="L5" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="15">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -909,16 +932,16 @@
         <v>10</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J6" s="2">
         <v>2</v>
@@ -935,10 +958,10 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="15">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -950,16 +973,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
         <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>4</v>
       </c>
       <c r="K7" s="2">
         <v>50</v>
@@ -973,10 +996,10 @@
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="15">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -988,16 +1011,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
       </c>
       <c r="J8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" s="2">
         <v>50</v>
@@ -1011,13 +1034,13 @@
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="15">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -1044,6 +1067,44 @@
         <v>5</v>
       </c>
       <c r="M9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="15">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
+      <c r="M10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1063,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
